--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B42293D-0F90-4B4D-A3D7-D7ECCF9B0490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B33F71-8045-4E3B-87BB-91A7628B6C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="4140" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="2490" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>索引</t>
   </si>
   <si>
-    <t>文本</t>
-  </si>
-  <si>
     <t>IDs</t>
   </si>
   <si>
@@ -43,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InitOutCome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold:100,food:100,stone:100,wood:100,metal:100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,18 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ValueString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValueInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StringValues</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +57,10 @@
   </si>
   <si>
     <t>ArrayInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitLimit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,80 +476,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17" style="12" customWidth="1"/>
-    <col min="4" max="4" width="57.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="57.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
+      <c r="C5" s="12">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -594,28 +561,28 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B33F71-8045-4E3B-87BB-91A7628B6C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61378E64-F109-4202-9254-E106448AF852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="2490" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="3555" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>索引</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>InitLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncomeShowValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,6 +536,14 @@
       </c>
       <c r="C5" s="12">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61378E64-F109-4202-9254-E106448AF852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F7124C-516E-4BED-9B9B-BD62AA6AE35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="3555" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>索引</t>
   </si>
@@ -40,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:100,food:100,stone:100,wood:100,metal:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ArrayString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +60,10 @@
   </si>
   <si>
     <t>IncomeShowValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TavernRefreshSecs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,17 +148,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,70 +473,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29" style="12" customWidth="1"/>
-    <col min="2" max="2" width="57.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="29" style="10" customWidth="1"/>
+    <col min="2" max="2" width="57.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="C5" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="C6" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12">
-        <v>50</v>
+      <c r="C7" s="10">
+        <v>3600</v>
       </c>
     </row>
   </sheetData>
@@ -551,54 +552,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43020500-08C6-42EC-A26B-74798D0581EE}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="57.25" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F7124C-516E-4BED-9B9B-BD62AA6AE35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD39F57-BCAB-42C5-B28B-20293360F51C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:1000,food:1000,stone:1000,wood:1000,metal:1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ArrayString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,6 +60,10 @@
   </si>
   <si>
     <t xml:space="preserve"> TavernRefreshSecs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:1000,food:5000,stone:5000,wood:5000,metal:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -509,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -520,12 +520,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10">
         <v>10000</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10">
         <v>50</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10">
         <v>3600</v>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD39F57-BCAB-42C5-B28B-20293360F51C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F8ACD6-EEDF-4990-A383-35B8DBFC6F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>索引</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>gold:1000,food:5000,stone:5000,wood:5000,metal:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitArmySecs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,6 +488,7 @@
     <col min="1" max="1" width="29" style="10" customWidth="1"/>
     <col min="2" max="2" width="57.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -545,6 +550,14 @@
       </c>
       <c r="C7" s="10">
         <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F8ACD6-EEDF-4990-A383-35B8DBFC6F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267DC65-FC1B-4571-BC7B-6E06756CA365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -59,15 +59,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> TavernRefreshSecs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold:1000,food:5000,stone:5000,wood:5000,metal:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RecruitArmySecs</t>
+    <t>TavernRefreshSecs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitSecs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,26 +152,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +480,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,31 +492,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -546,7 +546,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10">
         <v>3600</v>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267DC65-FC1B-4571-BC7B-6E06756CA365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F57FB-64C1-4E99-89DC-26CF960F5CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>索引</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>RecruitSecs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelArmyReturnRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUpOneSecsNeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,6 +572,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F57FB-64C1-4E99-89DC-26CF960F5CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFD43B-6441-426C-A1D6-E36828F31E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="4635" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>索引</t>
   </si>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>gold:1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroTalkGap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -561,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="10">
-        <v>3600</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -586,6 +590,14 @@
       </c>
       <c r="B10" s="9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFD43B-6441-426C-A1D6-E36828F31E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C551771-8438-4AC4-96B8-FD2FD5CD750F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="4635" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -496,7 +506,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="10">
-        <v>30</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -597,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C551771-8438-4AC4-96B8-FD2FD5CD750F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CE5571-1724-48EB-90DF-A606D817F458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>索引</t>
   </si>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>HeroTalkGap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PatrolDeltaSces</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,6 +614,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CE5571-1724-48EB-90DF-A606D817F458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2746AD1C-6920-49CF-9EB8-4A875DE646C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="2595" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2746AD1C-6920-49CF-9EB8-4A875DE646C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F25716-10AA-45F1-A8F6-94BF07579735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="2595" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>索引</t>
   </si>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>PatrolDeltaSces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestDeltaSces</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,6 +626,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F25716-10AA-45F1-A8F6-94BF07579735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627BC8C-7E5F-498D-8655-7E1CE528CFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,7 +623,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627BC8C-7E5F-498D-8655-7E1CE528CFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4249DA65-5ECC-4454-BCCC-826D2A1F9EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>索引</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>QuestDeltaSces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroEnegry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroCostEnegry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroEnegryRecoverDelta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,6 +646,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4249DA65-5ECC-4454-BCCC-826D2A1F9EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC2882-53CB-45F6-B4DD-ED8F81AEE44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43770" yWindow="3000" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC2882-53CB-45F6-B4DD-ED8F81AEE44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB59641C-90F3-4680-8545-FAEC82E9F4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43770" yWindow="3000" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>索引</t>
   </si>
@@ -114,6 +114,34 @@
   </si>
   <si>
     <t>HeroEnegryRecoverDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodExpRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDeltaSces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoraleReduceDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:5,food:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightOneArmyCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenseRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -670,6 +701,54 @@
         <v>60</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="10">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB59641C-90F3-4680-8545-FAEC82E9F4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D94CCA0-D619-4330-8308-18F692D6FA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>索引</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>DefenseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveBackDeltaSces</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,6 +753,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D94CCA0-D619-4330-8308-18F692D6FA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C7AE85-99AA-4B06-86B5-2787BC8B3661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -718,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -758,7 +758,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C7AE85-99AA-4B06-86B5-2787BC8B3661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB61A39-A106-49BE-9072-F2F4AAB617E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB61A39-A106-49BE-9072-F2F4AAB617E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8C81CF-29BE-4692-AC7E-75FF5ADA85E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>索引</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>MoveBackDeltaSces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleMpRecoverForOneRound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,6 +765,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8C81CF-29BE-4692-AC7E-75FF5ADA85E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FFFBE1-2F8F-4E41-B9BC-4B78D5E8FC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>索引</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>BattleMpRecoverForOneRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodLostRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,15 +244,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -256,6 +254,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,17 +572,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29" style="10" customWidth="1"/>
-    <col min="2" max="2" width="57.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="29" style="8" customWidth="1"/>
+    <col min="2" max="2" width="57.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="13" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -580,33 +590,33 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -614,47 +624,47 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="13">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>3600</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -662,115 +672,123 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10">
-        <v>20</v>
+      <c r="C22" s="13">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Const.xlsx
+++ b/Excel/Const.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FFFBE1-2F8F-4E41-B9BC-4B78D5E8FC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02C0718-A948-4E06-A2A1-56DE3A74C4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Const" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>索引</t>
   </si>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:5,food:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FightOneArmyCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +150,14 @@
   </si>
   <si>
     <t>BloodLostRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoundRecoverRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:0.5,food:0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -676,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="13">
-        <v>5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -745,15 +749,15 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13">
         <v>10</v>
@@ -761,7 +765,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="13">
         <v>10</v>
@@ -769,7 +773,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
@@ -777,7 +781,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="13">
         <v>2</v>
@@ -785,10 +789,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="13">
         <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="13">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
